--- a/biology/Botanique/Crotalaria_glauca/Crotalaria_glauca.xlsx
+++ b/biology/Botanique/Crotalaria_glauca/Crotalaria_glauca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria glauca est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria glauca est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle ou vivace de courte durée, érigée ou étalée, peu ramifiée dans sa partie haute, atteignant 30 à 120 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle ou vivace de courte durée, érigée ou étalée, peu ramifiée dans sa partie haute, atteignant 30 à 120 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans de nombreux pays d'Afrique tropicale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans de nombreux pays d'Afrique tropicale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec des variantes selon les sous-espèces, elle est très répandue dans les prairies, les forêts décidues, les endroits humides au milieu de zones sèches, le long des routes, en bordure des champs, à une altitude allant de 400 à 2 300 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec des variantes selon les sous-espèces, elle est très répandue dans les prairies, les forêts décidues, les endroits humides au milieu de zones sèches, le long des routes, en bordure des champs, à une altitude allant de 400 à 2 300 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Crotalaria glauca var. anisophylla Hiern
 variété Crotalaria glauca var. beniensis De Wild.
 variété Crotalaria glauca var. elliotii Baker f.
